--- a/data/pca/factorExposure/factorExposure_2009-02-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01644013209539781</v>
+        <v>0.01515760374943686</v>
       </c>
       <c r="C2">
-        <v>-0.00875071568884086</v>
+        <v>0.01023366873201189</v>
       </c>
       <c r="D2">
-        <v>0.01659292868778843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01542169153347661</v>
+      </c>
+      <c r="E2">
+        <v>0.0003257070779793268</v>
+      </c>
+      <c r="F2">
+        <v>0.005586053668326302</v>
+      </c>
+      <c r="G2">
+        <v>0.01773192603368235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08175690854363994</v>
+        <v>0.0841696453702362</v>
       </c>
       <c r="C4">
-        <v>-0.08092457546187244</v>
+        <v>0.08644188729176744</v>
       </c>
       <c r="D4">
-        <v>-0.06497086334850921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06429763553324851</v>
+      </c>
+      <c r="E4">
+        <v>-0.008283989109939835</v>
+      </c>
+      <c r="F4">
+        <v>0.04047163342924084</v>
+      </c>
+      <c r="G4">
+        <v>0.02868034973995724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002529465802804186</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001354450076034251</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0005479733790426694</v>
+      </c>
+      <c r="E5">
+        <v>0.003178827946604523</v>
+      </c>
+      <c r="F5">
+        <v>-0.001666372276868323</v>
+      </c>
+      <c r="G5">
+        <v>-0.001978656146350515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1677436921384742</v>
+        <v>0.1704145727811566</v>
       </c>
       <c r="C6">
-        <v>0.01946500731506545</v>
+        <v>-0.01136261975936697</v>
       </c>
       <c r="D6">
-        <v>-0.05442803112885183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0555928141407533</v>
+      </c>
+      <c r="E6">
+        <v>-0.01739487702589073</v>
+      </c>
+      <c r="F6">
+        <v>-0.0537315772041398</v>
+      </c>
+      <c r="G6">
+        <v>-0.01224335967479365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05465937582959512</v>
+        <v>0.05912320518964854</v>
       </c>
       <c r="C7">
-        <v>-0.05632187726052922</v>
+        <v>0.0621500508797761</v>
       </c>
       <c r="D7">
-        <v>-0.04330444894482496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05117428204056793</v>
+      </c>
+      <c r="E7">
+        <v>-0.04606996025409017</v>
+      </c>
+      <c r="F7">
+        <v>0.06887149326989596</v>
+      </c>
+      <c r="G7">
+        <v>0.04444243604231251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05753844079688979</v>
+        <v>0.0538308013111036</v>
       </c>
       <c r="C8">
-        <v>-0.04682565076375113</v>
+        <v>0.04798990125289011</v>
       </c>
       <c r="D8">
-        <v>0.01865935135716531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01823656965867104</v>
+      </c>
+      <c r="E8">
+        <v>0.03016915554549978</v>
+      </c>
+      <c r="F8">
+        <v>0.03374118010723814</v>
+      </c>
+      <c r="G8">
+        <v>-0.005336756776968043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06174988332190734</v>
+        <v>0.06504875014589048</v>
       </c>
       <c r="C9">
-        <v>-0.08728388631972711</v>
+        <v>0.09106129333275814</v>
       </c>
       <c r="D9">
-        <v>-0.08634070284210532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08322419222233193</v>
+      </c>
+      <c r="E9">
+        <v>-0.01274325515854004</v>
+      </c>
+      <c r="F9">
+        <v>0.0648919764684205</v>
+      </c>
+      <c r="G9">
+        <v>0.002751284098686337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1061248004750256</v>
+        <v>0.09888364652924048</v>
       </c>
       <c r="C10">
-        <v>0.1540290484739977</v>
+        <v>-0.1463563645413738</v>
       </c>
       <c r="D10">
-        <v>0.108328830073708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09810714253423915</v>
+      </c>
+      <c r="E10">
+        <v>-0.005932664433120001</v>
+      </c>
+      <c r="F10">
+        <v>0.044909677399937</v>
+      </c>
+      <c r="G10">
+        <v>-0.007797465154414597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07935579613787509</v>
+        <v>0.07720369078567323</v>
       </c>
       <c r="C11">
-        <v>-0.1277284183239997</v>
+        <v>0.1273715146026586</v>
       </c>
       <c r="D11">
-        <v>-0.0524809351462289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04426396319175684</v>
+      </c>
+      <c r="E11">
+        <v>0.01147741772125732</v>
+      </c>
+      <c r="F11">
+        <v>0.08172259915815853</v>
+      </c>
+      <c r="G11">
+        <v>0.005121060185990489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08355422694996964</v>
+        <v>0.07921080413988049</v>
       </c>
       <c r="C12">
-        <v>-0.1461640643668848</v>
+        <v>0.1477708149528188</v>
       </c>
       <c r="D12">
-        <v>-0.05706448950385745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05267932422723418</v>
+      </c>
+      <c r="E12">
+        <v>0.001874805698029018</v>
+      </c>
+      <c r="F12">
+        <v>0.08861402398194963</v>
+      </c>
+      <c r="G12">
+        <v>0.007362598786709076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04232627508455861</v>
+        <v>0.04236205426972558</v>
       </c>
       <c r="C13">
-        <v>-0.06162676286937688</v>
+        <v>0.06979268292121062</v>
       </c>
       <c r="D13">
-        <v>-0.02536723793422724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02550276652513571</v>
+      </c>
+      <c r="E13">
+        <v>-0.009348284116427887</v>
+      </c>
+      <c r="F13">
+        <v>0.08100296453961285</v>
+      </c>
+      <c r="G13">
+        <v>0.0105129434747567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02014821691367978</v>
+        <v>0.02293426887572485</v>
       </c>
       <c r="C14">
-        <v>-0.0410658506899569</v>
+        <v>0.04185097019224043</v>
       </c>
       <c r="D14">
-        <v>-0.04688689288721887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04211671016331738</v>
+      </c>
+      <c r="E14">
+        <v>0.007259819903195562</v>
+      </c>
+      <c r="F14">
+        <v>0.08865876976813199</v>
+      </c>
+      <c r="G14">
+        <v>-0.002284114708977743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03121831118469472</v>
+        <v>0.03360678309348369</v>
       </c>
       <c r="C15">
-        <v>-0.05727612036254905</v>
+        <v>0.05668837775524945</v>
       </c>
       <c r="D15">
-        <v>-0.04401584053392126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03950339330159832</v>
+      </c>
+      <c r="E15">
+        <v>-0.01168382160407787</v>
+      </c>
+      <c r="F15">
+        <v>0.03478191997118462</v>
+      </c>
+      <c r="G15">
+        <v>-0.008603644106217756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05792879064951288</v>
+        <v>0.05794369529464954</v>
       </c>
       <c r="C16">
-        <v>-0.1425327546719301</v>
+        <v>0.1422131579513935</v>
       </c>
       <c r="D16">
-        <v>-0.06503301754715812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05605014032987504</v>
+      </c>
+      <c r="E16">
+        <v>0.02539334712032528</v>
+      </c>
+      <c r="F16">
+        <v>0.08502399369444595</v>
+      </c>
+      <c r="G16">
+        <v>0.009348608892824089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004926206143732133</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004349218572892177</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001500563842748413</v>
+      </c>
+      <c r="E17">
+        <v>0.01019134078526903</v>
+      </c>
+      <c r="F17">
+        <v>-0.00464556984361767</v>
+      </c>
+      <c r="G17">
+        <v>-0.01724956866815977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.0347216460112422</v>
+        <v>0.05141977066007366</v>
       </c>
       <c r="C18">
-        <v>-0.04435454552707985</v>
+        <v>0.03931330097846577</v>
       </c>
       <c r="D18">
-        <v>0.004064830602802988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01118705426498015</v>
+      </c>
+      <c r="E18">
+        <v>0.003055741362799564</v>
+      </c>
+      <c r="F18">
+        <v>-0.04448410812079425</v>
+      </c>
+      <c r="G18">
+        <v>-0.01089842523509775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05720928173089117</v>
+        <v>0.05734514568172421</v>
       </c>
       <c r="C20">
-        <v>-0.09294680028186406</v>
+        <v>0.0927960836464658</v>
       </c>
       <c r="D20">
-        <v>-0.07410586969867533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07122675972030408</v>
+      </c>
+      <c r="E20">
+        <v>0.01515550530007156</v>
+      </c>
+      <c r="F20">
+        <v>0.07341927913556702</v>
+      </c>
+      <c r="G20">
+        <v>-0.00548406915845172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04225555913026253</v>
+        <v>0.04415826430720197</v>
       </c>
       <c r="C21">
-        <v>-0.05415370575215229</v>
+        <v>0.05305474826602295</v>
       </c>
       <c r="D21">
-        <v>-0.001745053576787176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>3.653105432044383e-05</v>
+      </c>
+      <c r="E21">
+        <v>-0.01013962150575162</v>
+      </c>
+      <c r="F21">
+        <v>0.07687485850929726</v>
+      </c>
+      <c r="G21">
+        <v>0.02653685922951605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0446942836146343</v>
+        <v>0.04319095443298009</v>
       </c>
       <c r="C22">
-        <v>-0.01876414754259111</v>
+        <v>0.02049606608273679</v>
       </c>
       <c r="D22">
-        <v>0.01636996055145291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03963904720228208</v>
+      </c>
+      <c r="E22">
+        <v>0.1271218936017749</v>
+      </c>
+      <c r="F22">
+        <v>-0.01637654785940059</v>
+      </c>
+      <c r="G22">
+        <v>-0.0004911050168975566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04470368535645502</v>
+        <v>0.04319891549866862</v>
       </c>
       <c r="C23">
-        <v>-0.01875636171675362</v>
+        <v>0.02048939228611486</v>
       </c>
       <c r="D23">
-        <v>0.01639563806257599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03966673644794741</v>
+      </c>
+      <c r="E23">
+        <v>0.1271573241760971</v>
+      </c>
+      <c r="F23">
+        <v>-0.01636824660232386</v>
+      </c>
+      <c r="G23">
+        <v>-0.0005254648429114474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06730973095067021</v>
+        <v>0.06668012461654849</v>
       </c>
       <c r="C24">
-        <v>-0.1360709416899738</v>
+        <v>0.1344074188039169</v>
       </c>
       <c r="D24">
-        <v>-0.05968386562828851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05350168671443793</v>
+      </c>
+      <c r="E24">
+        <v>0.006011294093650055</v>
+      </c>
+      <c r="F24">
+        <v>0.07714383937050244</v>
+      </c>
+      <c r="G24">
+        <v>0.009253780842507121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07269911680916687</v>
+        <v>0.07099997866715552</v>
       </c>
       <c r="C25">
-        <v>-0.1206291447463645</v>
+        <v>0.1189773029729222</v>
       </c>
       <c r="D25">
-        <v>-0.0424892658184093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03396279145664913</v>
+      </c>
+      <c r="E25">
+        <v>-0.02114764618676216</v>
+      </c>
+      <c r="F25">
+        <v>0.09189091979621668</v>
+      </c>
+      <c r="G25">
+        <v>0.0147243861675252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05555173624969213</v>
+        <v>0.05993519121228223</v>
       </c>
       <c r="C26">
-        <v>-0.06408370365877968</v>
+        <v>0.06506362416642272</v>
       </c>
       <c r="D26">
-        <v>-0.01907238340309949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01511411282351946</v>
+      </c>
+      <c r="E26">
+        <v>0.008746889967404935</v>
+      </c>
+      <c r="F26">
+        <v>0.08469536026328676</v>
+      </c>
+      <c r="G26">
+        <v>-0.0004927709373315038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1692717789844736</v>
+        <v>0.1720214953556241</v>
       </c>
       <c r="C28">
-        <v>0.2306063565636652</v>
+        <v>-0.2312832708345473</v>
       </c>
       <c r="D28">
-        <v>0.02279068578037683</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02832379022334109</v>
+      </c>
+      <c r="E28">
+        <v>-0.06183365620247227</v>
+      </c>
+      <c r="F28">
+        <v>0.1284115060982292</v>
+      </c>
+      <c r="G28">
+        <v>-0.002094376851722577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0242319118779686</v>
+        <v>0.02699061622198402</v>
       </c>
       <c r="C29">
-        <v>-0.04579692515748315</v>
+        <v>0.04364706583356024</v>
       </c>
       <c r="D29">
-        <v>-0.01016186973935439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005872048329282635</v>
+      </c>
+      <c r="E29">
+        <v>0.02536751980562274</v>
+      </c>
+      <c r="F29">
+        <v>0.07789292476262948</v>
+      </c>
+      <c r="G29">
+        <v>0.0006066267573452139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04049433080504364</v>
+        <v>0.04261572513490697</v>
       </c>
       <c r="C30">
-        <v>-0.06885249253440795</v>
+        <v>0.07647639147162934</v>
       </c>
       <c r="D30">
-        <v>-0.1155792583096744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1020884810370677</v>
+      </c>
+      <c r="E30">
+        <v>-0.06440872999838629</v>
+      </c>
+      <c r="F30">
+        <v>0.07959020843656903</v>
+      </c>
+      <c r="G30">
+        <v>-0.02320302756071213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05237509413923525</v>
+        <v>0.05166479845441177</v>
       </c>
       <c r="C31">
-        <v>-0.0316667708197816</v>
+        <v>0.03494732516948732</v>
       </c>
       <c r="D31">
-        <v>-0.01105006354758627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01397667140165972</v>
+      </c>
+      <c r="E31">
+        <v>0.03483122204123575</v>
+      </c>
+      <c r="F31">
+        <v>0.01603148802693584</v>
+      </c>
+      <c r="G31">
+        <v>0.02453176663772242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04299696053619682</v>
+        <v>0.04790446275673359</v>
       </c>
       <c r="C32">
-        <v>-0.04673080842352682</v>
+        <v>0.04390658226520524</v>
       </c>
       <c r="D32">
-        <v>-0.02014995424420753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02124002904668487</v>
+      </c>
+      <c r="E32">
+        <v>0.0311470155969993</v>
+      </c>
+      <c r="F32">
+        <v>0.008247152142967007</v>
+      </c>
+      <c r="G32">
+        <v>-0.01551124366347027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07928108291566908</v>
+        <v>0.08260685639980524</v>
       </c>
       <c r="C33">
-        <v>-0.1078323695786462</v>
+        <v>0.1164608180757368</v>
       </c>
       <c r="D33">
-        <v>-0.06596703930289531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06565664722700286</v>
+      </c>
+      <c r="E33">
+        <v>0.01500557054426443</v>
+      </c>
+      <c r="F33">
+        <v>0.07851576470458148</v>
+      </c>
+      <c r="G33">
+        <v>0.006742814500465514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05636872966939713</v>
+        <v>0.0559913723524308</v>
       </c>
       <c r="C34">
-        <v>-0.1203536868470473</v>
+        <v>0.1219342006492824</v>
       </c>
       <c r="D34">
-        <v>-0.07264736094893082</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05910011656768415</v>
+      </c>
+      <c r="E34">
+        <v>-0.02333477568626097</v>
+      </c>
+      <c r="F34">
+        <v>0.08880480421551325</v>
+      </c>
+      <c r="G34">
+        <v>-0.01826138255010108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02704374920615791</v>
+        <v>0.02885274238529418</v>
       </c>
       <c r="C35">
-        <v>-0.01615972174482386</v>
+        <v>0.01730755811766689</v>
       </c>
       <c r="D35">
-        <v>-0.02291470862262674</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01841665365829115</v>
+      </c>
+      <c r="E35">
+        <v>0.02131940053549995</v>
+      </c>
+      <c r="F35">
+        <v>0.04103092291741898</v>
+      </c>
+      <c r="G35">
+        <v>-0.02417152255373424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0222933153416807</v>
+        <v>0.02703920770286883</v>
       </c>
       <c r="C36">
-        <v>-0.04463569516885505</v>
+        <v>0.04540257156960015</v>
       </c>
       <c r="D36">
-        <v>-0.05791513727386595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04811442239370184</v>
+      </c>
+      <c r="E36">
+        <v>0.01201359968925161</v>
+      </c>
+      <c r="F36">
+        <v>0.04462247008764775</v>
+      </c>
+      <c r="G36">
+        <v>-0.0829196790687215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003567934769643811</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006384020400215624</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-8.586577055605805e-05</v>
+      </c>
+      <c r="E37">
+        <v>0.001785367745774765</v>
+      </c>
+      <c r="F37">
+        <v>0.009476394209334847</v>
+      </c>
+      <c r="G37">
+        <v>0.006493604043508214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08513867859481622</v>
+        <v>0.07900471242508048</v>
       </c>
       <c r="C39">
-        <v>-0.1517458116416334</v>
+        <v>0.1472656987091088</v>
       </c>
       <c r="D39">
-        <v>-0.04125735082614791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03505135251375553</v>
+      </c>
+      <c r="E39">
+        <v>0.0115578554802293</v>
+      </c>
+      <c r="F39">
+        <v>0.1245700211260001</v>
+      </c>
+      <c r="G39">
+        <v>0.0498761227043378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04542346157863401</v>
+        <v>0.05092967457567282</v>
       </c>
       <c r="C40">
-        <v>-0.05814061797848089</v>
+        <v>0.06312224374431974</v>
       </c>
       <c r="D40">
-        <v>-0.009302658295577308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.002597322033996762</v>
+      </c>
+      <c r="E40">
+        <v>0.004872484706518531</v>
+      </c>
+      <c r="F40">
+        <v>0.06233327636796627</v>
+      </c>
+      <c r="G40">
+        <v>-0.03725991598086133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02697760402186099</v>
+        <v>0.02869792537825066</v>
       </c>
       <c r="C41">
-        <v>-0.02108643589394136</v>
+        <v>0.02214840697968768</v>
       </c>
       <c r="D41">
-        <v>0.009232571441564853</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.007789571124018571</v>
+      </c>
+      <c r="E41">
+        <v>0.008993776415672792</v>
+      </c>
+      <c r="F41">
+        <v>-0.01161598162702667</v>
+      </c>
+      <c r="G41">
+        <v>-0.01362277366767108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04287829573714144</v>
+        <v>0.04194432510659655</v>
       </c>
       <c r="C43">
-        <v>-0.03902541950255358</v>
+        <v>0.0367297648237469</v>
       </c>
       <c r="D43">
-        <v>-0.0009435660981820058</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0007307990179827883</v>
+      </c>
+      <c r="E43">
+        <v>0.0280080164960097</v>
+      </c>
+      <c r="F43">
+        <v>0.0255631263820112</v>
+      </c>
+      <c r="G43">
+        <v>0.003653906046674579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05539151507814771</v>
+        <v>0.06362389048650637</v>
       </c>
       <c r="C44">
-        <v>-0.07876242716867643</v>
+        <v>0.08641321142793831</v>
       </c>
       <c r="D44">
-        <v>-0.281392487467891</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2583902809787739</v>
+      </c>
+      <c r="E44">
+        <v>-0.05112919293573831</v>
+      </c>
+      <c r="F44">
+        <v>0.1809942010918127</v>
+      </c>
+      <c r="G44">
+        <v>-0.176832526387085</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-2.32525831593398e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0004139793287166167</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>9.776093999945332e-06</v>
+      </c>
+      <c r="E45">
+        <v>5.256598006384336e-05</v>
+      </c>
+      <c r="F45">
+        <v>0.0001005003806767475</v>
+      </c>
+      <c r="G45">
+        <v>0.0003539429337616419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02644802075596978</v>
+        <v>0.02697044312189311</v>
       </c>
       <c r="C46">
-        <v>-0.03049248259564799</v>
+        <v>0.0295862026029239</v>
       </c>
       <c r="D46">
-        <v>-0.01030920305479031</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.007889854191835336</v>
+      </c>
+      <c r="E46">
+        <v>0.03776762997526705</v>
+      </c>
+      <c r="F46">
+        <v>0.070755620688721</v>
+      </c>
+      <c r="G46">
+        <v>0.03138265084202219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05200298957720985</v>
+        <v>0.05106408086726429</v>
       </c>
       <c r="C47">
-        <v>-0.0237088745349362</v>
+        <v>0.02607100572041256</v>
       </c>
       <c r="D47">
-        <v>0.0213564408734196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0135348375475504</v>
+      </c>
+      <c r="E47">
+        <v>0.05868183224954686</v>
+      </c>
+      <c r="F47">
+        <v>-0.01426152909979411</v>
+      </c>
+      <c r="G47">
+        <v>0.03342593442951682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04679274741493639</v>
+        <v>0.05036609828612009</v>
       </c>
       <c r="C48">
-        <v>-0.06690394844943771</v>
+        <v>0.06558270159675761</v>
       </c>
       <c r="D48">
-        <v>-0.01904895513734505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01541490587575319</v>
+      </c>
+      <c r="E48">
+        <v>-0.01603205221958041</v>
+      </c>
+      <c r="F48">
+        <v>0.05595056523309786</v>
+      </c>
+      <c r="G48">
+        <v>0.02346033146743646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1949607376927464</v>
+        <v>0.1980897628969805</v>
       </c>
       <c r="C49">
-        <v>0.01479525131242122</v>
+        <v>-0.007733929404666936</v>
       </c>
       <c r="D49">
-        <v>-0.03212426173842426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04118292147117049</v>
+      </c>
+      <c r="E49">
+        <v>-0.03052350556204051</v>
+      </c>
+      <c r="F49">
+        <v>-0.06248846985637315</v>
+      </c>
+      <c r="G49">
+        <v>-0.009133290596470545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05044004174146876</v>
+        <v>0.05204072720577688</v>
       </c>
       <c r="C50">
-        <v>-0.02962053075390076</v>
+        <v>0.03261092331929064</v>
       </c>
       <c r="D50">
-        <v>-0.02041234694928454</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02502974701253829</v>
+      </c>
+      <c r="E50">
+        <v>0.02454617821068154</v>
+      </c>
+      <c r="F50">
+        <v>0.008977678525249092</v>
+      </c>
+      <c r="G50">
+        <v>0.02269906592737981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1447460817596249</v>
+        <v>0.1383263517036746</v>
       </c>
       <c r="C52">
-        <v>-0.03576112656365162</v>
+        <v>0.03666270743463618</v>
       </c>
       <c r="D52">
-        <v>-0.05941133018764135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05854807847888613</v>
+      </c>
+      <c r="E52">
+        <v>0.02247956346710986</v>
+      </c>
+      <c r="F52">
+        <v>-0.06281688822940971</v>
+      </c>
+      <c r="G52">
+        <v>0.02854950109132015</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1750121892011429</v>
+        <v>0.1659100336403332</v>
       </c>
       <c r="C53">
-        <v>-0.003322513313870895</v>
+        <v>0.006463525944318497</v>
       </c>
       <c r="D53">
-        <v>-0.1019353076485138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1084443360297989</v>
+      </c>
+      <c r="E53">
+        <v>0.01350317965819565</v>
+      </c>
+      <c r="F53">
+        <v>-0.1081477721520408</v>
+      </c>
+      <c r="G53">
+        <v>0.06140863346294314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01111471257300064</v>
+        <v>0.01432825068570089</v>
       </c>
       <c r="C54">
-        <v>-0.02892867810623581</v>
+        <v>0.02920201316468904</v>
       </c>
       <c r="D54">
-        <v>-0.01364795449842451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01343689914926948</v>
+      </c>
+      <c r="E54">
+        <v>0.01604705049907212</v>
+      </c>
+      <c r="F54">
+        <v>0.06014167155508966</v>
+      </c>
+      <c r="G54">
+        <v>-0.006186399543281789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1207281346598425</v>
+        <v>0.1168891982589762</v>
       </c>
       <c r="C55">
-        <v>-0.005955448571846647</v>
+        <v>0.01220539156979372</v>
       </c>
       <c r="D55">
-        <v>-0.06640922894496762</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06927444180455893</v>
+      </c>
+      <c r="E55">
+        <v>0.04474795020786189</v>
+      </c>
+      <c r="F55">
+        <v>-0.03037943830978812</v>
+      </c>
+      <c r="G55">
+        <v>0.06775244539929412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.181248150678357</v>
+        <v>0.1735848650963505</v>
       </c>
       <c r="C56">
-        <v>0.002110506847843288</v>
+        <v>-0.001001119533697452</v>
       </c>
       <c r="D56">
-        <v>-0.05282239613564234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06193402828699391</v>
+      </c>
+      <c r="E56">
+        <v>0.03908789409300794</v>
+      </c>
+      <c r="F56">
+        <v>-0.1432305917311862</v>
+      </c>
+      <c r="G56">
+        <v>0.06409087720083104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04548192421872738</v>
+        <v>0.0451581617592655</v>
       </c>
       <c r="C58">
-        <v>-0.09121746781714102</v>
+        <v>0.09809660787497701</v>
       </c>
       <c r="D58">
-        <v>0.007375651362853721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.002484556621766133</v>
+      </c>
+      <c r="E58">
+        <v>0.04598015521219538</v>
+      </c>
+      <c r="F58">
+        <v>0.04290475880418566</v>
+      </c>
+      <c r="G58">
+        <v>0.01913806478941161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1857158868933107</v>
+        <v>0.1886809476348547</v>
       </c>
       <c r="C59">
-        <v>0.1859354489547625</v>
+        <v>-0.1893404985473285</v>
       </c>
       <c r="D59">
-        <v>0.08085543884150152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08012799991319114</v>
+      </c>
+      <c r="E59">
+        <v>0.00448089126292286</v>
+      </c>
+      <c r="F59">
+        <v>0.05283318883249687</v>
+      </c>
+      <c r="G59">
+        <v>0.0376777836107338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2168886721675606</v>
+        <v>0.2116075882744377</v>
       </c>
       <c r="C60">
-        <v>-0.0151636028940543</v>
+        <v>0.02126765895246633</v>
       </c>
       <c r="D60">
-        <v>0.05148976986245541</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03268481382713834</v>
+      </c>
+      <c r="E60">
+        <v>0.01696946673746845</v>
+      </c>
+      <c r="F60">
+        <v>-0.2148255181283154</v>
+      </c>
+      <c r="G60">
+        <v>0.07652519836160722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06589021316462966</v>
+        <v>0.06266422357325327</v>
       </c>
       <c r="C61">
-        <v>-0.1189501647819787</v>
+        <v>0.1171386047586015</v>
       </c>
       <c r="D61">
-        <v>-0.03315691331418182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02653534815177869</v>
+      </c>
+      <c r="E61">
+        <v>0.02130662583643416</v>
+      </c>
+      <c r="F61">
+        <v>0.08374067282065296</v>
+      </c>
+      <c r="G61">
+        <v>0.01777301057480302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.168064077703583</v>
+        <v>0.1641183096766553</v>
       </c>
       <c r="C62">
-        <v>0.006722288801900362</v>
+        <v>-0.003908995105733937</v>
       </c>
       <c r="D62">
-        <v>-0.04388911348282584</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05477518203194025</v>
+      </c>
+      <c r="E62">
+        <v>0.03780852386243039</v>
+      </c>
+      <c r="F62">
+        <v>-0.1145002969456309</v>
+      </c>
+      <c r="G62">
+        <v>0.05883518980267374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03780034953556206</v>
+        <v>0.04313382903492449</v>
       </c>
       <c r="C63">
-        <v>-0.06738992166645237</v>
+        <v>0.07112055985877017</v>
       </c>
       <c r="D63">
-        <v>-0.02624328430863108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01974361388944938</v>
+      </c>
+      <c r="E63">
+        <v>0.02808019376042802</v>
+      </c>
+      <c r="F63">
+        <v>0.05423972381585185</v>
+      </c>
+      <c r="G63">
+        <v>-0.02521629955154633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1118776308125145</v>
+        <v>0.1096698364963475</v>
       </c>
       <c r="C64">
-        <v>-0.04901838525908511</v>
+        <v>0.05289758865725786</v>
       </c>
       <c r="D64">
-        <v>-0.03509932610918526</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03884917227431962</v>
+      </c>
+      <c r="E64">
+        <v>0.012469476350561</v>
+      </c>
+      <c r="F64">
+        <v>-0.03162792835701301</v>
+      </c>
+      <c r="G64">
+        <v>0.001662325231997182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.156888971493197</v>
+        <v>0.1600824601668178</v>
       </c>
       <c r="C65">
-        <v>0.05773211038546678</v>
+        <v>-0.04820569805337239</v>
       </c>
       <c r="D65">
-        <v>-0.04552654291474537</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05225432189949936</v>
+      </c>
+      <c r="E65">
+        <v>-0.005528497605812323</v>
+      </c>
+      <c r="F65">
+        <v>-0.01038702363507064</v>
+      </c>
+      <c r="G65">
+        <v>0.01751335990867535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.102942972660224</v>
+        <v>0.09596890126626446</v>
       </c>
       <c r="C66">
-        <v>-0.1300263363111603</v>
+        <v>0.1301435126925155</v>
       </c>
       <c r="D66">
-        <v>-0.04606750440605442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03649470536394291</v>
+      </c>
+      <c r="E66">
+        <v>0.00433902609085803</v>
+      </c>
+      <c r="F66">
+        <v>0.1015101524296998</v>
+      </c>
+      <c r="G66">
+        <v>0.003694544182929894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05811212430451627</v>
+        <v>0.04866409380883256</v>
       </c>
       <c r="C67">
-        <v>-0.07781341740501888</v>
+        <v>0.07111510911820905</v>
       </c>
       <c r="D67">
-        <v>0.05253468485218212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05341333659661838</v>
+      </c>
+      <c r="E67">
+        <v>0.07987260476045514</v>
+      </c>
+      <c r="F67">
+        <v>-0.03146463869032762</v>
+      </c>
+      <c r="G67">
+        <v>-0.001156788642085197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1379392692481423</v>
+        <v>0.1410731873749221</v>
       </c>
       <c r="C68">
-        <v>0.246765310790514</v>
+        <v>-0.2494626860797343</v>
       </c>
       <c r="D68">
-        <v>0.04097700537532604</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.041682745847584</v>
+      </c>
+      <c r="E68">
+        <v>-0.1008213845207318</v>
+      </c>
+      <c r="F68">
+        <v>0.1104218458981337</v>
+      </c>
+      <c r="G68">
+        <v>0.03370701653471283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03938319025913949</v>
+        <v>0.03878603753252285</v>
       </c>
       <c r="C69">
-        <v>-0.01320314550356484</v>
+        <v>0.01501307488026127</v>
       </c>
       <c r="D69">
-        <v>-0.00837098318035117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01180425297269815</v>
+      </c>
+      <c r="E69">
+        <v>0.06290909753218635</v>
+      </c>
+      <c r="F69">
+        <v>-0.04237121012258004</v>
+      </c>
+      <c r="G69">
+        <v>-0.02391661239939634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07001364663956501</v>
+        <v>0.07154034335249161</v>
       </c>
       <c r="C70">
-        <v>-0.07558634020051588</v>
+        <v>0.06948764268973606</v>
       </c>
       <c r="D70">
-        <v>0.4984602557685882</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.401371323667463</v>
+      </c>
+      <c r="E70">
+        <v>0.2120676349539622</v>
+      </c>
+      <c r="F70">
+        <v>-0.3917444574272641</v>
+      </c>
+      <c r="G70">
+        <v>0.3964168408647518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.160010238859108</v>
+        <v>0.1645510189752443</v>
       </c>
       <c r="C71">
-        <v>0.2552515105609898</v>
+        <v>-0.255113893230456</v>
       </c>
       <c r="D71">
-        <v>0.04354569989014297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04685457875429602</v>
+      </c>
+      <c r="E71">
+        <v>-0.1115931397556971</v>
+      </c>
+      <c r="F71">
+        <v>0.1119104971664617</v>
+      </c>
+      <c r="G71">
+        <v>0.03390360630963758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1430072940941367</v>
+        <v>0.1481388668794733</v>
       </c>
       <c r="C72">
-        <v>-0.01346500565431001</v>
+        <v>0.01178250688782325</v>
       </c>
       <c r="D72">
-        <v>-0.07417265283308819</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06583034055719097</v>
+      </c>
+      <c r="E72">
+        <v>0.03950599554150912</v>
+      </c>
+      <c r="F72">
+        <v>-0.01549507480066716</v>
+      </c>
+      <c r="G72">
+        <v>-0.01003942347307778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1937444182908001</v>
+        <v>0.2011093700184372</v>
       </c>
       <c r="C73">
-        <v>-0.02168552707315883</v>
+        <v>0.03023789905882778</v>
       </c>
       <c r="D73">
-        <v>-0.0626962249232233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07169491741258935</v>
+      </c>
+      <c r="E73">
+        <v>0.06918546057716995</v>
+      </c>
+      <c r="F73">
+        <v>-0.1058190439736519</v>
+      </c>
+      <c r="G73">
+        <v>-0.02058971495809896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08715036904056191</v>
+        <v>0.08610594670210836</v>
       </c>
       <c r="C74">
-        <v>-0.006482389818374079</v>
+        <v>0.01305437840336716</v>
       </c>
       <c r="D74">
-        <v>-0.077665341009543</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08274436140454598</v>
+      </c>
+      <c r="E74">
+        <v>0.02309958449508219</v>
+      </c>
+      <c r="F74">
+        <v>-0.06378238211612093</v>
+      </c>
+      <c r="G74">
+        <v>-0.003231064718984621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1239422686911169</v>
+        <v>0.1163624751558957</v>
       </c>
       <c r="C75">
-        <v>-0.02006244186759383</v>
+        <v>0.0234546996150648</v>
       </c>
       <c r="D75">
-        <v>-0.05933548038664701</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.05984914769016621</v>
+      </c>
+      <c r="E75">
+        <v>0.05811300656846904</v>
+      </c>
+      <c r="F75">
+        <v>-0.05565972432498804</v>
+      </c>
+      <c r="G75">
+        <v>0.04295376050157755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07154123328177753</v>
+        <v>0.08657954611755085</v>
       </c>
       <c r="C77">
-        <v>-0.1201833440335216</v>
+        <v>0.1190379398162162</v>
       </c>
       <c r="D77">
-        <v>-0.06662823029667653</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06860120777181712</v>
+      </c>
+      <c r="E77">
+        <v>-0.01007364299357374</v>
+      </c>
+      <c r="F77">
+        <v>0.08423397854829087</v>
+      </c>
+      <c r="G77">
+        <v>0.1149279292063303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0909997835127747</v>
+        <v>0.09352975948429587</v>
       </c>
       <c r="C78">
-        <v>-0.1413021547420446</v>
+        <v>0.1381454845206559</v>
       </c>
       <c r="D78">
-        <v>-0.09102851114975706</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07139134818536395</v>
+      </c>
+      <c r="E78">
+        <v>-0.003627455745690584</v>
+      </c>
+      <c r="F78">
+        <v>0.1147958697910189</v>
+      </c>
+      <c r="G78">
+        <v>0.1121864773277077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1678380102967348</v>
+        <v>0.1627458284365669</v>
       </c>
       <c r="C79">
-        <v>-0.01970546290676205</v>
+        <v>0.02022231539715235</v>
       </c>
       <c r="D79">
-        <v>-0.03531579931802561</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03786951423727575</v>
+      </c>
+      <c r="E79">
+        <v>0.03848710822826933</v>
+      </c>
+      <c r="F79">
+        <v>-0.04977003510645121</v>
+      </c>
+      <c r="G79">
+        <v>0.04447259231898751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07560778016761061</v>
+        <v>0.07327108289848228</v>
       </c>
       <c r="C80">
-        <v>-0.059156263892275</v>
+        <v>0.05800504943351127</v>
       </c>
       <c r="D80">
-        <v>-0.005735980419316846</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.008241665766776275</v>
+      </c>
+      <c r="E80">
+        <v>0.05105529884670539</v>
+      </c>
+      <c r="F80">
+        <v>0.1209642413791208</v>
+      </c>
+      <c r="G80">
+        <v>-0.09191883674331452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1110436876939038</v>
+        <v>0.104869409883049</v>
       </c>
       <c r="C81">
-        <v>0.01707457299315593</v>
+        <v>-0.01344113120850858</v>
       </c>
       <c r="D81">
-        <v>-0.03065807260234263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0352089078358029</v>
+      </c>
+      <c r="E81">
+        <v>0.05815656806336147</v>
+      </c>
+      <c r="F81">
+        <v>-0.06195129748997767</v>
+      </c>
+      <c r="G81">
+        <v>0.01087147157607153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1607958199764297</v>
+        <v>0.1573566023195868</v>
       </c>
       <c r="C82">
-        <v>0.02345170008486516</v>
+        <v>-0.01693002366403492</v>
       </c>
       <c r="D82">
-        <v>-0.09277622812460914</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09993705599861455</v>
+      </c>
+      <c r="E82">
+        <v>0.003946594379728598</v>
+      </c>
+      <c r="F82">
+        <v>-0.1009816075584745</v>
+      </c>
+      <c r="G82">
+        <v>-0.006309124242959506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05348823378384902</v>
+        <v>0.04936689279144447</v>
       </c>
       <c r="C83">
-        <v>-0.05899299097623619</v>
+        <v>0.0556413378271734</v>
       </c>
       <c r="D83">
-        <v>0.01089817733686336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01244141477012176</v>
+      </c>
+      <c r="E83">
+        <v>0.01145799767990176</v>
+      </c>
+      <c r="F83">
+        <v>0.006700276927218775</v>
+      </c>
+      <c r="G83">
+        <v>0.01556414014814532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.051472009152569</v>
+        <v>0.04859867572819519</v>
       </c>
       <c r="C84">
-        <v>-0.07449754800794919</v>
+        <v>0.0724322389531738</v>
       </c>
       <c r="D84">
-        <v>-0.005932666768902821</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.006117244952887493</v>
+      </c>
+      <c r="E84">
+        <v>0.009843195989308646</v>
+      </c>
+      <c r="F84">
+        <v>-0.01508018276065299</v>
+      </c>
+      <c r="G84">
+        <v>0.03150917630526451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1405569791645314</v>
+        <v>0.1343241660770175</v>
       </c>
       <c r="C85">
-        <v>-0.01074763185248997</v>
+        <v>0.01391009401042001</v>
       </c>
       <c r="D85">
-        <v>-0.09462309914269519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09386972746419667</v>
+      </c>
+      <c r="E85">
+        <v>0.01886776292737553</v>
+      </c>
+      <c r="F85">
+        <v>-0.0386925329242988</v>
+      </c>
+      <c r="G85">
+        <v>0.03035444345134006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08351840891236145</v>
+        <v>0.08109183091487071</v>
       </c>
       <c r="C86">
-        <v>-0.09424177909626524</v>
+        <v>0.09617956738979312</v>
       </c>
       <c r="D86">
-        <v>0.5082463707874718</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5694947788091522</v>
+      </c>
+      <c r="E86">
+        <v>0.4656248429399864</v>
+      </c>
+      <c r="F86">
+        <v>0.4697360763279176</v>
+      </c>
+      <c r="G86">
+        <v>-0.0508290021048709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08822193969848437</v>
+        <v>0.08739928569874451</v>
       </c>
       <c r="C87">
-        <v>-0.08454240570375453</v>
+        <v>0.08622545006798311</v>
       </c>
       <c r="D87">
-        <v>-0.04610883904292785</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.03245979556539123</v>
+      </c>
+      <c r="E87">
+        <v>-0.1017133816027133</v>
+      </c>
+      <c r="F87">
+        <v>0.09512376029742192</v>
+      </c>
+      <c r="G87">
+        <v>-0.06308407602626474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06071272703855385</v>
+        <v>0.06036650406643525</v>
       </c>
       <c r="C88">
-        <v>-0.05951967848686294</v>
+        <v>0.06029075063728229</v>
       </c>
       <c r="D88">
-        <v>-0.01454051678602438</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01720826679900835</v>
+      </c>
+      <c r="E88">
+        <v>0.01385984460056454</v>
+      </c>
+      <c r="F88">
+        <v>-0.02548098423501675</v>
+      </c>
+      <c r="G88">
+        <v>0.01243231544724137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1467733425132621</v>
+        <v>0.1493409794714142</v>
       </c>
       <c r="C89">
-        <v>0.1994060785000997</v>
+        <v>-0.2103417105496815</v>
       </c>
       <c r="D89">
-        <v>0.02009752932071634</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02858958965285694</v>
+      </c>
+      <c r="E89">
+        <v>-0.09152064164134985</v>
+      </c>
+      <c r="F89">
+        <v>0.084923417460688</v>
+      </c>
+      <c r="G89">
+        <v>0.002224171158401726</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1743774191289408</v>
+        <v>0.1818150197256793</v>
       </c>
       <c r="C90">
-        <v>0.2329497707666544</v>
+        <v>-0.2404286691536349</v>
       </c>
       <c r="D90">
-        <v>0.05838523282051544</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0654456758898012</v>
+      </c>
+      <c r="E90">
+        <v>-0.1388552536937401</v>
+      </c>
+      <c r="F90">
+        <v>0.1285594827536022</v>
+      </c>
+      <c r="G90">
+        <v>0.01854763053792113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.12652672444152</v>
+        <v>0.1205622301319519</v>
       </c>
       <c r="C91">
-        <v>0.02157737596795212</v>
+        <v>-0.01923647831148003</v>
       </c>
       <c r="D91">
-        <v>-0.02759533198389541</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02833817573503188</v>
+      </c>
+      <c r="E91">
+        <v>0.09209199746556505</v>
+      </c>
+      <c r="F91">
+        <v>-0.08901428219795926</v>
+      </c>
+      <c r="G91">
+        <v>-0.005080636889126345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1691879047010934</v>
+        <v>0.1714630486082271</v>
       </c>
       <c r="C92">
-        <v>0.267232132429529</v>
+        <v>-0.2782182492611529</v>
       </c>
       <c r="D92">
-        <v>0.05952132233484701</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05387898134613548</v>
+      </c>
+      <c r="E92">
+        <v>-0.0960045603135494</v>
+      </c>
+      <c r="F92">
+        <v>0.1711237802256803</v>
+      </c>
+      <c r="G92">
+        <v>0.07768554496120778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1751747474011816</v>
+        <v>0.1830660603044338</v>
       </c>
       <c r="C93">
-        <v>0.2253013610509197</v>
+        <v>-0.2321120820722936</v>
       </c>
       <c r="D93">
-        <v>0.03093973164859462</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03055253293133778</v>
+      </c>
+      <c r="E93">
+        <v>-0.06632633884540141</v>
+      </c>
+      <c r="F93">
+        <v>0.08545177833650969</v>
+      </c>
+      <c r="G93">
+        <v>0.07188766594785438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1196090660190379</v>
+        <v>0.1138917731048528</v>
       </c>
       <c r="C94">
-        <v>-0.03149056361311627</v>
+        <v>0.03240044667157305</v>
       </c>
       <c r="D94">
-        <v>-0.0508271871099951</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05105266353882128</v>
+      </c>
+      <c r="E94">
+        <v>0.05809459717590968</v>
+      </c>
+      <c r="F94">
+        <v>-0.05426333269889974</v>
+      </c>
+      <c r="G94">
+        <v>0.03579970530059702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1193693175759183</v>
+        <v>0.1225366439041975</v>
       </c>
       <c r="C95">
-        <v>-0.1100882336016349</v>
+        <v>0.1176198272467329</v>
       </c>
       <c r="D95">
-        <v>-0.0008143214803601112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.00432481558428257</v>
+      </c>
+      <c r="E95">
+        <v>0.05184551097705482</v>
+      </c>
+      <c r="F95">
+        <v>0.04892842989412299</v>
+      </c>
+      <c r="G95">
+        <v>0.00633988326215188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1237858993003939</v>
+        <v>0.1219714794200838</v>
       </c>
       <c r="C96">
-        <v>-0.1335728316930337</v>
+        <v>0.1399144683812465</v>
       </c>
       <c r="D96">
-        <v>0.03413091853920362</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.00540384237610237</v>
+      </c>
+      <c r="E96">
+        <v>0.08740002489077051</v>
+      </c>
+      <c r="F96">
+        <v>-0.1660524005188747</v>
+      </c>
+      <c r="G96">
+        <v>0.05437946268716101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1925487726008216</v>
+        <v>0.195897204998653</v>
       </c>
       <c r="C97">
-        <v>0.01373192098363857</v>
+        <v>-0.01469606659820187</v>
       </c>
       <c r="D97">
-        <v>0.1385451729395949</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1712243127913286</v>
+      </c>
+      <c r="E97">
+        <v>0.0993370181696174</v>
+      </c>
+      <c r="F97">
+        <v>-0.2617664064202913</v>
+      </c>
+      <c r="G97">
+        <v>-0.8349173689114233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1988856109454186</v>
+        <v>0.2042527548714988</v>
       </c>
       <c r="C98">
-        <v>-0.02751516588301854</v>
+        <v>0.03347298261463159</v>
       </c>
       <c r="D98">
-        <v>0.1147875460813962</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1033852929233635</v>
+      </c>
+      <c r="E98">
+        <v>-0.02356641073287607</v>
+      </c>
+      <c r="F98">
+        <v>-0.0974743773716034</v>
+      </c>
+      <c r="G98">
+        <v>0.01787157878978542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.0539337247206932</v>
+        <v>0.05370568203285031</v>
       </c>
       <c r="C99">
-        <v>-0.05531547808431986</v>
+        <v>0.05704050150893392</v>
       </c>
       <c r="D99">
-        <v>-0.006839880491476962</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.005886112857987046</v>
+      </c>
+      <c r="E99">
+        <v>0.001624135597547627</v>
+      </c>
+      <c r="F99">
+        <v>0.04145082448329827</v>
+      </c>
+      <c r="G99">
+        <v>-0.003288870252810313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1139102212369297</v>
+        <v>0.1079021692747628</v>
       </c>
       <c r="C100">
-        <v>-0.3969968282119555</v>
+        <v>0.3626136909716416</v>
       </c>
       <c r="D100">
-        <v>0.4251410597825027</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.4654128262090576</v>
+      </c>
+      <c r="E100">
+        <v>-0.7290050633346666</v>
+      </c>
+      <c r="F100">
+        <v>-0.05464675725134531</v>
+      </c>
+      <c r="G100">
+        <v>-0.01834226168076981</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02416958708071866</v>
+        <v>0.02693527005374243</v>
       </c>
       <c r="C101">
-        <v>-0.04536193681568157</v>
+        <v>0.04318320109264476</v>
       </c>
       <c r="D101">
-        <v>-0.006181625980134354</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.002935139268109355</v>
+      </c>
+      <c r="E101">
+        <v>0.0266436303151411</v>
+      </c>
+      <c r="F101">
+        <v>0.07263105821076708</v>
+      </c>
+      <c r="G101">
+        <v>0.003662117575617918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
